--- a/data/Variació PIB porcentaje.xlsx
+++ b/data/Variació PIB porcentaje.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\Hackaton-UAB-2025\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E506026E-C2F6-4FE1-B877-B3BC5BF5911F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591F810F-9932-4CAD-8F96-5AF290A58A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>ANDALUCÍA</t>
   </si>
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>TIPUS</t>
+  </si>
+  <si>
+    <t>CCAA</t>
+  </si>
+  <si>
+    <t>PROVINCIA</t>
   </si>
 </sst>
 </file>
@@ -365,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -383,12 +392,59 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_cuadrosWEB" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Greek"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1094,24 +1150,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C75FBB1-6519-4069-BC9B-8300D6D6CBF2}" name="Tabla1" displayName="Tabla1" ref="A1:O63" totalsRowShown="0" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A1:O63" xr:uid="{0C75FBB1-6519-4069-BC9B-8300D6D6CBF2}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{A18A722A-98E6-4B11-936E-8360EBEF1670}" name="AÑO" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{5EC326FD-682C-4287-9EC9-607EBFEE88C6}" name="2009" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{45EE8CC0-0A9F-4298-A635-5397F14B337F}" name="2010" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{8FDA692D-499D-473A-9946-8AD1FC9CD771}" name="2011" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{7DC31CC5-3CCC-4758-AB3D-8977D75CBEED}" name="2012" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{BAADCEC9-5563-43D2-8DE4-4E40FC5A8046}" name="2013" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{D2941A65-55C2-4009-BA0B-593C1D950978}" name="2014" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{5A1BA752-2B56-4FB8-AD97-8E526C70B485}" name="2015" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{071AF7A8-5C24-4E3D-AFFF-279A5676581B}" name="2016" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{FB149372-5B45-4B1F-87BD-8CD99CC22882}" name="2017" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{8C361C6D-ADDE-465D-A799-70B44E648328}" name="2018" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{B904861D-F9AA-489A-8E2C-1E58914B56A1}" name="2019" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{521ECA33-6E84-46C2-BE13-26F1C026A025}" name="2020" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{4AD25EAE-BB52-40AA-A01E-92B70CD82480}" name="2021" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{76ADDC50-8525-4563-B904-546A052DD199}" name="2022" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C75FBB1-6519-4069-BC9B-8300D6D6CBF2}" name="Tabla1" displayName="Tabla1" ref="A1:P63" totalsRowShown="0" dataDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P63" xr:uid="{0C75FBB1-6519-4069-BC9B-8300D6D6CBF2}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{A18A722A-98E6-4B11-936E-8360EBEF1670}" name="AÑO" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{9B050EC3-1C05-4EDE-853B-EC903E037D82}" name="TIPUS" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{5EC326FD-682C-4287-9EC9-607EBFEE88C6}" name="2009" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{45EE8CC0-0A9F-4298-A635-5397F14B337F}" name="2010" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{8FDA692D-499D-473A-9946-8AD1FC9CD771}" name="2011" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{7DC31CC5-3CCC-4758-AB3D-8977D75CBEED}" name="2012" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{BAADCEC9-5563-43D2-8DE4-4E40FC5A8046}" name="2013" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{D2941A65-55C2-4009-BA0B-593C1D950978}" name="2014" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{5A1BA752-2B56-4FB8-AD97-8E526C70B485}" name="2015" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{071AF7A8-5C24-4E3D-AFFF-279A5676581B}" name="2016" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{FB149372-5B45-4B1F-87BD-8CD99CC22882}" name="2017" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{8C361C6D-ADDE-465D-A799-70B44E648328}" name="2018" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{B904861D-F9AA-489A-8E2C-1E58914B56A1}" name="2019" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{521ECA33-6E84-46C2-BE13-26F1C026A025}" name="2020" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{4AD25EAE-BB52-40AA-A01E-92B70CD82480}" name="2021" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{76ADDC50-8525-4563-B904-546A052DD199}" name="2022" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1404,3014 +1461,3204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4F4E99-DB8C-4CFF-B155-3E7847C6204F}">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" customWidth="1"/>
+    <col min="3" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="6">
         <v>-4.2333605361992377E-2</v>
       </c>
-      <c r="C2" s="6">
+      <c r="D2" s="6">
         <v>3.5421262617507665E-4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="6">
         <v>-9.3203335027700618E-3</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <v>-3.7661476568096819E-2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <v>-1.264648609492558E-2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>1.3410147418507545E-2</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>5.2257571725635943E-2</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>2.3877441877521832E-2</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <v>4.5947297117927777E-2</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <v>3.2558414440601036E-2</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="6">
         <v>2.8317420512535607E-2</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="6">
         <v>-9.6263474619250111E-2</v>
       </c>
-      <c r="N2" s="6">
+      <c r="O2" s="6">
         <v>0.10530502271644337</v>
       </c>
-      <c r="O2" s="6">
+      <c r="P2" s="6">
         <v>0.10676759507586575</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="3">
         <v>-7.3422557439516645E-2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>-1.7927125744710115E-2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>-6.608211671678621E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>-1.1341978822597354E-2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>-1.4346627709949988E-2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>4.5880236134259622E-2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>7.698937777007453E-2</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>8.7117997816062998E-2</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>6.8638247542984532E-2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>8.0942581587066798E-3</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>4.7211468168101511E-2</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>-7.7435164202614093E-2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>6.5568787284933094E-3</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>0.10895859337938174</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="3">
         <v>-6.0029733817012154E-2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>1.6431599396786734E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>-3.5798719794978284E-3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>-3.8539269766495687E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>-2.125349932359466E-2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>-9.1860497229520055E-3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>3.4526694771271016E-2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>3.2223197065299969E-2</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>4.6975702553119003E-2</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>2.7549231505089145E-2</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>3.9619182598795488E-2</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>-0.12312245584856152</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>0.1171747637499827</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>0.12363102467820863</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="3">
         <v>-3.6448154504066355E-2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>-7.537224204641757E-3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>-1.2704041039288017E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>-5.7629461362962986E-2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>1.155351144822081E-2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>4.9830760071576385E-3</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>5.9462574114905298E-2</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>1.5953707067174028E-2</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>4.0222334370851431E-2</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>1.270890104188882E-2</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>-3.8590485575428213E-3</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>-7.7453139052068298E-2</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>0.10488575515949972</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>6.9325853063777698E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="3">
         <v>-4.2923105543451134E-2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>-6.6666890692826941E-3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>-1.4508856020515326E-3</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>-2.229810292414236E-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>-7.4078291613774994E-3</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>3.2176497743042543E-2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>5.2093902586862528E-2</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>1.4878995724203481E-3</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>2.6819062714958264E-2</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>2.9683912190481943E-2</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>4.4018581750074448E-2</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>-8.9530983570897282E-2</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>8.7010469703466597E-2</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>0.10503244291609226</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="3">
         <v>-7.6486698565423006E-2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>2.6652699573224359E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>3.5377119396857948E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>-2.7332605403120658E-2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>-6.6982609836762741E-2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>-2.0367360237002474E-3</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>6.280407488744455E-2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>3.9483795421001888E-2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>8.0620800130907888E-2</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>5.7647716919882797E-2</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>3.2074525327261405E-3</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>-0.12179199305352184</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>0.13757531735443984</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>0.19707812487371035</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="3">
         <v>-2.123953962994074E-2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>3.8249878746119403E-3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>-8.2352671930430166E-4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>-0.1066675437669049</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6.5761216035601811E-2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>-4.8068416850394868E-2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>0.1241313859935651</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>-1.9469380208573139E-2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2.0044249500120515E-2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4.6131060086146869E-2</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>-3.1625338120964908E-2</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>-4.3123501747092674E-2</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9.9479613278603329E-2</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>-9.9594775911965305E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="3">
         <v>-2.8635650920958544E-2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>-1.6500797731089367E-4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>-1.6122362180616578E-2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>-4.3579884565379978E-2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-9.0018800598549165E-3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3.0179704622635306E-2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4.7674453696550101E-2</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2.2857297212017347E-2</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4.8329581435816005E-2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4.391755803407249E-2</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4.2485306874148643E-2</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>-0.12337788773947189</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>0.14389026974060282</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>0.14129756382020142</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="3">
         <v>-3.0287225437609311E-2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>-3.4150210612802212E-3</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>-3.1420105531342335E-3</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-2.2219336315762006E-2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-2.8352569040336562E-2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2.0349390300937298E-2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3.1639742021884132E-2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1.9374143240191932E-2</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4.4056493258916252E-2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3.4257339440724177E-2</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3.2747516867162929E-2</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-8.4155458806210559E-2</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>0.10992815166572667</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9.3575116485281606E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="6">
         <v>-4.5868686940226833E-2</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="6">
         <v>8.4644824526987072E-3</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <v>-1.3747635800421487E-2</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>-4.3464799125891851E-2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <v>4.7924837710111579E-3</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <v>8.6170236396436728E-3</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>2.035036744775498E-2</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <v>3.836351486340539E-2</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <v>4.172921830409515E-2</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <v>3.4192074021391461E-2</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <v>3.362069373225518E-2</v>
       </c>
-      <c r="M11" s="6">
+      <c r="N11" s="6">
         <v>-6.5240570447153701E-2</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="6">
         <v>7.8613297505413016E-2</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P11" s="6">
         <v>0.12566523826923803</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="3">
         <v>-6.0198583312273457E-2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>2.2767479012319125E-2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>-6.9132032595380366E-3</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>-4.9500736194480699E-2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2.8314753341926568E-2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>-9.6831772541052796E-3</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9.5416302562869593E-3</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8.4442762514378655E-2</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8.2055342369617978E-3</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1.0287858612141543E-2</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3.5902362911181207E-2</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>-3.5980359150358243E-2</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7.0931022685379652E-2</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>0.12522136456588795</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="3">
         <v>-6.4875753581251527E-2</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>-4.6883947622716748E-3</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>-1.793715200372048E-2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>-2.7477677198301187E-2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>4.5871217466986192E-3</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>1.7749101481439045E-3</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>-2.5328299890865602E-2</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>-9.4905606944170051E-3</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>-1.029519294580894E-2</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>4.9202343462251052E-2</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>1.2186956573172703E-2</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>-8.8239161228191532E-2</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>0.13090641420503646</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>0.15400036950726315</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="3">
         <v>-3.9604606848162915E-2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>6.9817192008132523E-3</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>-1.4789881218005396E-2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-4.4272796004678705E-2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-8.2950714519225421E-4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1.4134477591303707E-2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2.9504137275514708E-2</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3.3942963441377483E-2</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5.6814368057724884E-2</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3.8029192210552454E-2</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3.5730666594308458E-2</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-6.9224678098746439E-2</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7.4291486351157676E-2</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>0.12225900244961663</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="6">
         <v>-5.2843462390586349E-2</v>
       </c>
-      <c r="C15" s="6">
+      <c r="D15" s="6">
         <v>1.0024047663608426E-2</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="6">
         <v>-1.4555601316936229E-2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="6">
         <v>-4.4767097856794669E-2</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <v>-2.6865959407858853E-2</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <v>-2.7853148924634752E-3</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>3.6435445566154412E-2</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <v>1.3432630099426079E-2</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <v>3.9806618006064998E-2</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="6">
         <v>2.8725056811155891E-2</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="6">
         <v>2.0742889576669699E-2</v>
       </c>
-      <c r="M15" s="6">
+      <c r="N15" s="6">
         <v>-9.6770311668528231E-2</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15" s="6">
         <v>0.10484692645980664</v>
       </c>
-      <c r="O15" s="6">
+      <c r="P15" s="6">
         <v>0.13045134355289756</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="6">
         <v>-4.0215900350661693E-2</v>
       </c>
-      <c r="C16" s="6">
+      <c r="D16" s="6">
         <v>9.9337253580622509E-4</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="6">
         <v>-5.6261121342143783E-3</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="6">
         <v>-1.5835061218745561E-2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <v>1.3807801579490686E-4</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <v>3.3578293609643373E-2</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>5.699763709802208E-2</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>5.5125156079090853E-2</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="6">
         <v>5.0043091580789012E-2</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L16" s="6">
         <v>4.535077228489115E-2</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="6">
         <v>3.5093386457794473E-2</v>
       </c>
-      <c r="M16" s="6">
+      <c r="N16" s="6">
         <v>-0.22361983100370719</v>
       </c>
-      <c r="N16" s="6">
+      <c r="O16" s="6">
         <v>0.14410081837763888</v>
       </c>
-      <c r="O16" s="6">
+      <c r="P16" s="6">
         <v>0.21876579903622639</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="6">
         <v>-4.0107950093856148E-2</v>
       </c>
-      <c r="C17" s="6">
+      <c r="D17" s="6">
         <v>5.8927431890904991E-3</v>
       </c>
-      <c r="D17" s="6">
+      <c r="E17" s="6">
         <v>-3.182305977138089E-3</v>
       </c>
-      <c r="E17" s="6">
+      <c r="F17" s="6">
         <v>-3.4638851454668496E-2</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G17" s="6">
         <v>-4.5143513784479117E-3</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="6">
         <v>6.4612961760159848E-3</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>3.4547912628050348E-2</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>3.3885400121286935E-2</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <v>5.0175343042049958E-2</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="6">
         <v>3.6560853385477099E-2</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="6">
         <v>2.5949003509719182E-2</v>
       </c>
-      <c r="M17" s="6">
+      <c r="N17" s="6">
         <v>-0.17871966755313107</v>
       </c>
-      <c r="N17" s="6">
+      <c r="O17" s="6">
         <v>0.1016265052019163</v>
       </c>
-      <c r="O17" s="6">
+      <c r="P17" s="6">
         <v>0.18011475036693425</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="3">
         <v>-3.4952937194113964E-2</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>-1.3041343879716227E-2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
         <v>-1.6397468719330233E-3</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3.736151756424988E-2</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9.0954697855250011E-3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2.741829904799209E-3</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2.7262245550527142E-2</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5.1091822857356473E-2</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4.5246981397361719E-2</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4.0047345187768535E-2</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2.1953998013085174E-2</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-0.18396205239730157</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>0.11506588219255387</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>0.19167690931336367</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="3">
         <v>-4.5547898755791127E-2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>2.6095180581244826E-2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>-4.765421203044462E-3</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>-3.1835826763867425E-2</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>-1.8445892711310474E-2</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>1.037551756549826E-2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>4.2157137187173399E-2</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <v>1.6171679635267555E-2</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>5.5423361309783203E-2</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>3.2884022656181289E-2</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <v>3.0191328347636048E-2</v>
       </c>
-      <c r="M19" s="3">
+      <c r="N19" s="3">
         <v>-0.17319725439653066</v>
       </c>
-      <c r="N19" s="3">
+      <c r="O19" s="3">
         <v>8.7653572190033335E-2</v>
       </c>
-      <c r="O19" s="3">
+      <c r="P19" s="3">
         <v>0.16779059078884129</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="6">
         <v>-3.5326721860410637E-2</v>
       </c>
-      <c r="C20" s="6">
+      <c r="D20" s="6">
         <v>5.5473581771139369E-3</v>
       </c>
-      <c r="D20" s="6">
+      <c r="E20" s="6">
         <v>-1.5714107735495975E-2</v>
       </c>
-      <c r="E20" s="6">
+      <c r="F20" s="6">
         <v>-3.5912281036573734E-2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20" s="6">
         <v>-2.2970347081600062E-2</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="6">
         <v>1.7947904760533318E-2</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <v>2.3468938921392901E-2</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <v>3.1345300643860652E-2</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20" s="6">
         <v>3.772228533199451E-2</v>
       </c>
-      <c r="K20" s="6">
+      <c r="L20" s="6">
         <v>3.9488743937444726E-2</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="6">
         <v>3.1090582265808075E-2</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20" s="6">
         <v>-8.9889200566806826E-2</v>
       </c>
-      <c r="N20" s="6">
+      <c r="O20" s="6">
         <v>9.3547413984545358E-2</v>
       </c>
-      <c r="O20" s="6">
+      <c r="P20" s="6">
         <v>9.530224745817728E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="6">
         <v>-3.2744182589669379E-2</v>
       </c>
-      <c r="C21" s="6">
+      <c r="D21" s="6">
         <v>4.4146102157296419E-3</v>
       </c>
-      <c r="D21" s="6">
+      <c r="E21" s="6">
         <v>-6.6469405118588787E-3</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="6">
         <v>-3.2013716874892184E-2</v>
       </c>
-      <c r="F21" s="6">
+      <c r="G21" s="6">
         <v>-2.4896405609309169E-2</v>
       </c>
-      <c r="G21" s="6">
+      <c r="H21" s="6">
         <v>2.0133413480873941E-3</v>
       </c>
-      <c r="H21" s="6">
+      <c r="I21" s="6">
         <v>3.5025252186151823E-2</v>
       </c>
-      <c r="I21" s="6">
+      <c r="J21" s="6">
         <v>2.7210296988180227E-2</v>
       </c>
-      <c r="J21" s="6">
+      <c r="K21" s="6">
         <v>2.2858298359605955E-2</v>
       </c>
-      <c r="K21" s="6">
+      <c r="L21" s="6">
         <v>4.3800947875271001E-2</v>
       </c>
-      <c r="L21" s="6">
+      <c r="M21" s="6">
         <v>2.267118481384367E-2</v>
       </c>
-      <c r="M21" s="6">
+      <c r="N21" s="6">
         <v>-8.1385989464602737E-2</v>
       </c>
-      <c r="N21" s="6">
+      <c r="O21" s="6">
         <v>8.5251319249789459E-2</v>
       </c>
-      <c r="O21" s="6">
+      <c r="P21" s="6">
         <v>0.10081673698708005</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="3">
         <v>-2.8966605105677612E-2</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>-3.6390297542127081E-3</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>-7.1401889211120118E-4</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>-2.1625192051788145E-2</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>-2.951021745079685E-2</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>-3.1462040408444247E-3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1.7655876134479609E-2</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2.2020639803199682E-3</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2.8175696800854189E-2</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3.3691887897293826E-2</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3.274004673569153E-2</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>-7.2839700542909336E-2</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6.2581816480460795E-2</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6.9061480322583302E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3">
         <v>-5.1146728227684291E-2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>3.7299900153753285E-3</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>5.5118773269007271E-3</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1.7661354296170662E-2</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3.846869965499522E-2</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8.0660590675125654E-3</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2.8731249908979573E-2</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3.4410466683099772E-2</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5.0377503763545883E-2</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4.3751196004737425E-2</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1.2796692571779733E-2</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9.4855175529687363E-2</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6.2762777121758928E-2</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4.7528011707220097E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="3">
         <v>-1.4566879502463159E-2</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>-5.7145211154164821E-3</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>-1.7392792260347067E-2</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2.9400502986969612E-2</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3.4408856321159864E-2</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4.477671848824416E-3</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2.5462823991193595E-2</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2.7943934551352134E-3</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2.9700541153101723E-2</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2.8555312683466783E-2</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2.7019928616414779E-2</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7.6211029350549908E-2</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>0.12698020685187816</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>0.12445984589873138</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="3">
         <v>-4.4192998385630067E-2</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>-1.4846006833278746E-2</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>4.9374918444433646E-3</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>-5.8273513249040843E-2</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>-1.173261138025028E-2</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>-1.0229759111148651E-2</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>5.4648089032006242E-2</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <v>6.008133287527273E-2</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>-2.4351622938158735E-2</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
         <v>7.4892034613783798E-2</v>
       </c>
-      <c r="L25" s="3">
+      <c r="M25" s="3">
         <v>9.7819075965492885E-3</v>
       </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
         <v>-8.4990091479804408E-2</v>
       </c>
-      <c r="N25" s="3">
+      <c r="O25" s="3">
         <v>7.0357329095624532E-2</v>
       </c>
-      <c r="O25" s="3">
+      <c r="P25" s="3">
         <v>9.0404777053797236E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="3">
         <v>-7.6764151767149125E-3</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
         <v>-3.8682123846449756E-2</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
         <v>-6.5681047582921703E-3</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3.6902819285940414E-2</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2.9377221582352786E-2</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5.1477759516302957E-3</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3.9739225821463497E-2</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4.0864484296889936E-2</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2.7792166984901501E-2</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3.0144614657269697E-2</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3.7065214458759543E-2</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7.9189848942868624E-2</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>0.1220242068918691</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>0.17086663409524205</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="3">
         <v>-4.8002591838237629E-2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>1.2189887568774038E-2</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
         <v>-2.0795286683054526E-2</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4.9229149108056536E-2</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2.133459205108712E-2</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1.5540616460415047E-2</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4.3789872715505274E-2</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2.6302230581509711E-3</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3.4860061512008822E-2</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3.6143410496042527E-2</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3.0951261650536521E-2</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9.154293400043878E-2</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>0.15266827638066593</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>0.10815977263871224</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="3">
         <v>-5.0206355654750512E-2</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>3.9941022654608638E-2</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <v>-3.2789315267413022E-3</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>-5.8918409294750895E-2</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>6.445080248906665E-3</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="3">
         <v>1.2580810871061221E-2</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <v>3.269854792239002E-2</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
         <v>2.7236818506020111E-3</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <v>2.1255600572744449E-2</v>
       </c>
-      <c r="K28" s="3">
+      <c r="L28" s="3">
         <v>0.12790645576340043</v>
       </c>
-      <c r="L28" s="3">
+      <c r="M28" s="3">
         <v>1.5222110318870996E-2</v>
       </c>
-      <c r="M28" s="3">
+      <c r="N28" s="3">
         <v>-9.4243581550150668E-2</v>
       </c>
-      <c r="N28" s="3">
+      <c r="O28" s="3">
         <v>0.11525036926493915</v>
       </c>
-      <c r="O28" s="3">
+      <c r="P28" s="3">
         <v>6.3424257268463125E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="3">
         <v>-3.7441525604065218E-2</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="3">
         <v>3.3320199547529405E-2</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="3">
         <v>-1.5421855929332096E-2</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-3.3976094428252224E-2</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-8.6774576957527882E-3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>1.6932556021652889E-2</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>4.1594115975092549E-2</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>5.1560471152285015E-2</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>4.6960959430759175E-2</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>4.4866849074070236E-2</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1.7937144439210018E-2</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-7.2216660658718013E-2</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>2.9039481848184501E-2</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>9.3409335994420584E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="3">
         <v>-2.6420926067428407E-2</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="3">
         <v>1.849445903924285E-2</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E30" s="3">
         <v>1.492114646168119E-2</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>-8.4630662998964601E-3</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>-4.1780355428680083E-2</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <v>-1.2087514595388149E-2</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
         <v>3.2114821316973297E-2</v>
       </c>
-      <c r="I30" s="3">
+      <c r="J30" s="3">
         <v>4.4967891839018392E-3</v>
       </c>
-      <c r="J30" s="3">
+      <c r="K30" s="3">
         <v>-6.2139161789823705E-2</v>
       </c>
-      <c r="K30" s="3">
+      <c r="L30" s="3">
         <v>3.3365633471120093E-2</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M30" s="3">
         <v>3.5926416545594364E-2</v>
       </c>
-      <c r="M30" s="3">
+      <c r="N30" s="3">
         <v>-8.2197254849388002E-2</v>
       </c>
-      <c r="N30" s="3">
+      <c r="O30" s="3">
         <v>0.14661881411693911</v>
       </c>
-      <c r="O30" s="3">
+      <c r="P30" s="3">
         <v>0.12817571670790029</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="6">
         <v>-3.5079491156174925E-2</v>
       </c>
-      <c r="C31" s="6">
+      <c r="D31" s="6">
         <v>2.0482697061823263E-3</v>
       </c>
-      <c r="D31" s="6">
+      <c r="E31" s="6">
         <v>-9.6213465229518791E-3</v>
       </c>
-      <c r="E31" s="6">
+      <c r="F31" s="6">
         <v>-3.6164601957792919E-2</v>
       </c>
-      <c r="F31" s="6">
+      <c r="G31" s="6">
         <v>-1.9488070498098198E-2</v>
       </c>
-      <c r="G31" s="6">
+      <c r="H31" s="6">
         <v>-2.0969014796693219E-2</v>
       </c>
-      <c r="H31" s="6">
+      <c r="I31" s="6">
         <v>5.1506270691358269E-2</v>
       </c>
-      <c r="I31" s="6">
+      <c r="J31" s="6">
         <v>2.995436474544011E-2</v>
       </c>
-      <c r="J31" s="6">
+      <c r="K31" s="6">
         <v>4.1718798652154776E-2</v>
       </c>
-      <c r="K31" s="6">
+      <c r="L31" s="6">
         <v>3.7331490362557451E-2</v>
       </c>
-      <c r="L31" s="6">
+      <c r="M31" s="6">
         <v>2.6066537915640398E-2</v>
       </c>
-      <c r="M31" s="6">
+      <c r="N31" s="6">
         <v>-7.2337037814337424E-2</v>
       </c>
-      <c r="N31" s="6">
+      <c r="O31" s="6">
         <v>9.6129363378277599E-2</v>
       </c>
-      <c r="O31" s="6">
+      <c r="P31" s="6">
         <v>0.13368116833325083</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="3">
         <v>-2.4074341310366121E-3</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D32" s="3">
         <v>-2.3614666715062738E-3</v>
       </c>
-      <c r="D32" s="3">
+      <c r="E32" s="3">
         <v>-1.8701297172587505E-2</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2.7156235525430117E-2</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9.1320905937014585E-3</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1.2061096660018089E-2</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6.1377506064594689E-2</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2.0922521561271612E-2</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5.5808609548044341E-2</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3.657819943517393E-2</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4.1271200729873669E-2</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7.149215760549299E-2</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>0.10523125213939721</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7.5391528344761261E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="3">
         <v>-4.487584214197049E-2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="D33" s="3">
         <v>1.5248527048055127E-2</v>
       </c>
-      <c r="D33" s="3">
+      <c r="E33" s="3">
         <v>-5.4937253595397362E-3</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3.3852427900731175E-2</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3.2327373964350814E-2</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2.5807019305501333E-2</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8.1164993077890157E-2</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2.5252458684322132E-2</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3.3318528148780002E-2</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2.0251967905845492E-2</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1.0024326402894079E-2</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7.5656862745098086E-2</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2.9325325134219593E-2</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>0.1691776615418259</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="3">
         <v>-3.6789782029684082E-2</v>
       </c>
-      <c r="C34" s="3">
+      <c r="D34" s="3">
         <v>3.212043304232326E-2</v>
       </c>
-      <c r="D34" s="3">
+      <c r="E34" s="3">
         <v>1.1268065880077449E-2</v>
       </c>
-      <c r="E34" s="3">
+      <c r="F34" s="3">
         <v>-2.9472647567531207E-2</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="3">
         <v>-1.4092493233414105E-2</v>
       </c>
-      <c r="G34" s="3">
+      <c r="H34" s="3">
         <v>-2.360377361713295E-2</v>
       </c>
-      <c r="H34" s="3">
+      <c r="I34" s="3">
         <v>5.3121959740687785E-2</v>
       </c>
-      <c r="I34" s="3">
+      <c r="J34" s="3">
         <v>1.8049504078829104E-2</v>
       </c>
-      <c r="J34" s="3">
+      <c r="K34" s="3">
         <v>3.0528614574026669E-2</v>
       </c>
-      <c r="K34" s="3">
+      <c r="L34" s="3">
         <v>4.0408621271893042E-2</v>
       </c>
-      <c r="L34" s="3">
+      <c r="M34" s="3">
         <v>-2.6097002410124803E-3</v>
       </c>
-      <c r="M34" s="3">
+      <c r="N34" s="3">
         <v>-7.2820100798690723E-2</v>
       </c>
-      <c r="N34" s="3">
+      <c r="O34" s="3">
         <v>0.16958034190184157</v>
       </c>
-      <c r="O34" s="3">
+      <c r="P34" s="3">
         <v>0.13396657740064</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="3">
         <v>-4.0741723985993294E-2</v>
       </c>
-      <c r="C35" s="3">
+      <c r="D35" s="3">
         <v>2.6340538468877073E-2</v>
       </c>
-      <c r="D35" s="3">
+      <c r="E35" s="3">
         <v>1.1017139129795517E-2</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3.2382534942341223E-2</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3.2194357565775378E-2</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4.746516846895299E-2</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3.8376510980711043E-3</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5.1247757241223102E-2</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7.4824821242729378E-2</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5.364316788147061E-2</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4.979980263724082E-2</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7.4829037046060476E-2</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>0.11086980360890797</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>0.16780330216357564</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="3">
         <v>-4.2988391134884618E-2</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D36" s="3">
         <v>-2.4821550166687079E-2</v>
       </c>
-      <c r="D36" s="3">
+      <c r="E36" s="3">
         <v>-2.2988373505656412E-2</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" s="3">
         <v>-4.7489801039045987E-2</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <v>-1.1463100871967891E-2</v>
       </c>
-      <c r="G36" s="3">
+      <c r="H36" s="3">
         <v>-1.0528979048825438E-2</v>
       </c>
-      <c r="H36" s="3">
+      <c r="I36" s="3">
         <v>3.9340000910380146E-2</v>
       </c>
-      <c r="I36" s="3">
+      <c r="J36" s="3">
         <v>3.576795260431842E-2</v>
       </c>
-      <c r="J36" s="3">
+      <c r="K36" s="3">
         <v>3.1125214425414605E-2</v>
       </c>
-      <c r="K36" s="3">
+      <c r="L36" s="3">
         <v>4.4634106120702954E-2</v>
       </c>
-      <c r="L36" s="3">
+      <c r="M36" s="3">
         <v>3.0122601955822947E-2</v>
       </c>
-      <c r="M36" s="3">
+      <c r="N36" s="3">
         <v>-6.8964884458675102E-2</v>
       </c>
-      <c r="N36" s="3">
+      <c r="O36" s="3">
         <v>0.11344453797861909</v>
       </c>
-      <c r="O36" s="3">
+      <c r="P36" s="3">
         <v>0.12972194293475359</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="6">
         <v>-3.5628702575984272E-2</v>
       </c>
-      <c r="C37" s="6">
+      <c r="D37" s="6">
         <v>9.2499651897197666E-3</v>
       </c>
-      <c r="D37" s="6">
+      <c r="E37" s="6">
         <v>-1.3144271007188513E-2</v>
       </c>
-      <c r="E37" s="6">
+      <c r="F37" s="6">
         <v>-2.7140060755992623E-2</v>
       </c>
-      <c r="F37" s="6">
+      <c r="G37" s="6">
         <v>-6.0859758998336178E-3</v>
       </c>
-      <c r="G37" s="6">
+      <c r="H37" s="6">
         <v>1.8986115194896014E-2</v>
       </c>
-      <c r="H37" s="6">
+      <c r="I37" s="6">
         <v>4.7892190159579684E-2</v>
       </c>
-      <c r="I37" s="6">
+      <c r="J37" s="6">
         <v>3.9083999957952642E-2</v>
       </c>
-      <c r="J37" s="6">
+      <c r="K37" s="6">
         <v>4.0266328399354734E-2</v>
       </c>
-      <c r="K37" s="6">
+      <c r="L37" s="6">
         <v>3.5679474574360714E-2</v>
       </c>
-      <c r="L37" s="6">
+      <c r="M37" s="6">
         <v>3.9223195671774791E-2</v>
       </c>
-      <c r="M37" s="6">
+      <c r="N37" s="6">
         <v>-0.10537878875002937</v>
       </c>
-      <c r="N37" s="6">
+      <c r="O37" s="6">
         <v>9.2912619011764619E-2</v>
       </c>
-      <c r="O37" s="6">
+      <c r="P37" s="6">
         <v>0.10206241363985069</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="3">
         <v>-3.8324897960583915E-2</v>
       </c>
-      <c r="C38" s="3">
+      <c r="D38" s="3">
         <v>7.2370028387469532E-3</v>
       </c>
-      <c r="D38" s="3">
+      <c r="E38" s="3">
         <v>-1.2956441146103947E-2</v>
       </c>
-      <c r="E38" s="3">
+      <c r="F38" s="3">
         <v>-2.8387167483785225E-2</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="3">
         <v>-5.1516898341250617E-3</v>
       </c>
-      <c r="G38" s="3">
+      <c r="H38" s="3">
         <v>2.0442172991121055E-2</v>
       </c>
-      <c r="H38" s="3">
+      <c r="I38" s="3">
         <v>4.7206847669399865E-2</v>
       </c>
-      <c r="I38" s="3">
+      <c r="J38" s="3">
         <v>4.2874498768934677E-2</v>
       </c>
-      <c r="J38" s="3">
+      <c r="K38" s="3">
         <v>5.111059661744255E-2</v>
       </c>
-      <c r="K38" s="3">
+      <c r="L38" s="3">
         <v>4.0921465840381366E-2</v>
       </c>
-      <c r="L38" s="3">
+      <c r="M38" s="3">
         <v>4.1075153962327748E-2</v>
       </c>
-      <c r="M38" s="3">
+      <c r="N38" s="3">
         <v>-0.10342857491296575</v>
       </c>
-      <c r="N38" s="3">
+      <c r="O38" s="3">
         <v>7.4326471200742983E-2</v>
       </c>
-      <c r="O38" s="3">
+      <c r="P38" s="3">
         <v>9.9485511646057123E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="3">
         <v>-3.1545065645934511E-2</v>
       </c>
-      <c r="C39" s="3">
+      <c r="D39" s="3">
         <v>1.3309989683112811E-2</v>
       </c>
-      <c r="D39" s="3">
+      <c r="E39" s="3">
         <v>-1.5684544151562174E-2</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="3">
         <v>-2.2530169791290855E-2</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
         <v>-1.7270547534522285E-2</v>
       </c>
-      <c r="G39" s="3">
+      <c r="H39" s="3">
         <v>1.3966277029586305E-2</v>
       </c>
-      <c r="H39" s="3">
+      <c r="I39" s="3">
         <v>4.0647383985801033E-2</v>
       </c>
-      <c r="I39" s="3">
+      <c r="J39" s="3">
         <v>4.4757928658746504E-2</v>
       </c>
-      <c r="J39" s="3">
+      <c r="K39" s="3">
         <v>-7.5722118012221395E-3</v>
       </c>
-      <c r="K39" s="3">
+      <c r="L39" s="3">
         <v>2.749393054276239E-2</v>
       </c>
-      <c r="L39" s="3">
+      <c r="M39" s="3">
         <v>4.1584531194276853E-2</v>
       </c>
-      <c r="M39" s="3">
+      <c r="N39" s="3">
         <v>-0.10443126270957437</v>
       </c>
-      <c r="N39" s="3">
+      <c r="O39" s="3">
         <v>0.18182417311418164</v>
       </c>
-      <c r="O39" s="3">
+      <c r="P39" s="3">
         <v>0.12613115500325978</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="3">
         <v>-1.6460751235002902E-2</v>
       </c>
-      <c r="C40" s="3">
+      <c r="D40" s="3">
         <v>2.3270281723803965E-3</v>
       </c>
-      <c r="D40" s="3">
+      <c r="E40" s="3">
         <v>-5.7520077632985389E-3</v>
       </c>
-      <c r="E40" s="3">
+      <c r="F40" s="3">
         <v>-7.8046845405828069E-3</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="3">
         <v>8.6158516402161656E-3</v>
       </c>
-      <c r="G40" s="3">
+      <c r="H40" s="3">
         <v>6.5230116633332447E-3</v>
       </c>
-      <c r="H40" s="3">
+      <c r="I40" s="3">
         <v>4.3166346882910878E-2</v>
       </c>
-      <c r="I40" s="3">
+      <c r="J40" s="3">
         <v>-2.8156772040049294E-2</v>
       </c>
-      <c r="J40" s="3">
+      <c r="K40" s="3">
         <v>-2.9375981195582712E-2</v>
       </c>
-      <c r="K40" s="3">
+      <c r="L40" s="3">
         <v>3.2904982064790422E-2</v>
       </c>
-      <c r="L40" s="3">
+      <c r="M40" s="3">
         <v>4.711924261303202E-2</v>
       </c>
-      <c r="M40" s="3">
+      <c r="N40" s="3">
         <v>-8.8583178151068198E-2</v>
       </c>
-      <c r="N40" s="3">
+      <c r="O40" s="3">
         <v>0.11336232498629384</v>
       </c>
-      <c r="O40" s="3">
+      <c r="P40" s="3">
         <v>6.4975373443336482E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="3">
         <v>-3.1078163951196225E-2</v>
       </c>
-      <c r="C41" s="3">
+      <c r="D41" s="3">
         <v>2.3495515307005554E-2</v>
       </c>
-      <c r="D41" s="3">
+      <c r="E41" s="3">
         <v>-1.619441215331352E-2</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>-3.3590050909293345E-2</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>-1.0605196188465227E-2</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2.0756351460958111E-2</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6.2085255922581961E-2</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4.5999113073992515E-2</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4.5535120747826729E-2</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7.8053678320761932E-3</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1.9981156965914959E-2</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>-0.129085527218742</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>0.13991444274187459</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>0.1169664038019218</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="6">
         <v>-5.5219045703186143E-2</v>
       </c>
-      <c r="C42" s="6">
+      <c r="D42" s="6">
         <v>-1.1762918625134455E-3</v>
       </c>
-      <c r="D42" s="6">
+      <c r="E42" s="6">
         <v>-1.4552553752220532E-2</v>
       </c>
-      <c r="E42" s="6">
+      <c r="F42" s="6">
         <v>-4.5340998692517176E-2</v>
       </c>
-      <c r="F42" s="6">
+      <c r="G42" s="6">
         <v>-7.5732906848680059E-3</v>
       </c>
-      <c r="G42" s="6">
+      <c r="H42" s="6">
         <v>2.2563252752678453E-2</v>
       </c>
-      <c r="H42" s="6">
+      <c r="I42" s="6">
         <v>4.0697947911391807E-2</v>
       </c>
-      <c r="I42" s="6">
+      <c r="J42" s="6">
         <v>2.9553064912646754E-2</v>
       </c>
-      <c r="J42" s="6">
+      <c r="K42" s="6">
         <v>4.2812715763778764E-2</v>
       </c>
-      <c r="K42" s="6">
+      <c r="L42" s="6">
         <v>3.7572334018903586E-2</v>
       </c>
-      <c r="L42" s="6">
+      <c r="M42" s="6">
         <v>3.4048501149991139E-2</v>
       </c>
-      <c r="M42" s="6">
+      <c r="N42" s="6">
         <v>-9.0243501487556332E-2</v>
       </c>
-      <c r="N42" s="6">
+      <c r="O42" s="6">
         <v>9.7294336246603663E-2</v>
       </c>
-      <c r="O42" s="6">
+      <c r="P42" s="6">
         <v>9.6960262866683689E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="3">
         <v>-5.9284389849314389E-2</v>
       </c>
-      <c r="C43" s="3">
+      <c r="D43" s="3">
         <v>-1.317884767071853E-2</v>
       </c>
-      <c r="D43" s="3">
+      <c r="E43" s="3">
         <v>-3.3608421772056363E-2</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>-4.3131590405515841E-2</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>-6.8998843823943057E-3</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3.0530683432493655E-2</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3.9613475776658635E-2</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4.7164546214427228E-2</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4.4952424083199327E-2</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2.9377552901468151E-2</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3.6867290747101489E-2</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>-8.7402621495697663E-2</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>0.11496423509190734</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8.9955484305860089E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="3">
         <v>-4.7342205885978927E-2</v>
       </c>
-      <c r="C44" s="3">
+      <c r="D44" s="3">
         <v>6.0912675984918785E-3</v>
       </c>
-      <c r="D44" s="3">
+      <c r="E44" s="3">
         <v>1.5033445239972743E-2</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>-6.3868683388380365E-2</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>-3.9021378524894956E-3</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9.1217971291399635E-3</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7.0176908519093972E-2</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4.3616203064999803E-2</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9.0207986228511894E-2</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1.1557884741414837E-2</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2.8685156855913441E-2</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>-0.11118233570118086</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>0.10001951713941626</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>0.11043928790233304</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="3">
         <v>-5.4629955844589739E-2</v>
       </c>
-      <c r="C45" s="3">
+      <c r="D45" s="3">
         <v>4.3095654672975492E-3</v>
       </c>
-      <c r="D45" s="3">
+      <c r="E45" s="3">
         <v>-1.0372868230054677E-2</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>-4.2062684564385E-2</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>-8.8436570354114563E-3</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2.1202778209848505E-2</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3.4298051781026295E-2</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1.5755968351357286E-2</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2.9499706891371824E-2</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4.9586384947773565E-2</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3.3740622022004674E-2</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>-8.656495234762196E-2</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8.5956960748135858E-2</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9.7874852274012714E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="6">
         <v>-2.5058007595651466E-2</v>
       </c>
-      <c r="C46" s="6">
+      <c r="D46" s="6">
         <v>1.5364224509597291E-2</v>
       </c>
-      <c r="D46" s="6">
+      <c r="E46" s="6">
         <v>-2.0296795295331682E-2</v>
       </c>
-      <c r="E46" s="6">
+      <c r="F46" s="6">
         <v>-3.7996391240015082E-2</v>
       </c>
-      <c r="F46" s="6">
+      <c r="G46" s="6">
         <v>1.5299616155748375E-3</v>
       </c>
-      <c r="G46" s="6">
+      <c r="H46" s="6">
         <v>-2.3725433821818465E-3</v>
       </c>
-      <c r="H46" s="6">
+      <c r="I46" s="6">
         <v>5.2965530198438415E-2</v>
       </c>
-      <c r="I46" s="6">
+      <c r="J46" s="6">
         <v>3.1062498016352746E-2</v>
       </c>
-      <c r="J46" s="6">
+      <c r="K46" s="6">
         <v>5.7687756519307687E-2</v>
       </c>
-      <c r="K46" s="6">
+      <c r="L46" s="6">
         <v>2.695687845427952E-2</v>
       </c>
-      <c r="L46" s="6">
+      <c r="M46" s="6">
         <v>2.186416484826581E-2</v>
       </c>
-      <c r="M46" s="6">
+      <c r="N46" s="6">
         <v>-7.8842416743881261E-2</v>
       </c>
-      <c r="N46" s="6">
+      <c r="O46" s="6">
         <v>0.10535661192399393</v>
       </c>
-      <c r="O46" s="6">
+      <c r="P46" s="6">
         <v>8.9480661616534896E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="3">
         <v>-2.7736977086046277E-2</v>
       </c>
-      <c r="C47" s="3">
+      <c r="D47" s="3">
         <v>3.4453155054037232E-3</v>
       </c>
-      <c r="D47" s="3">
+      <c r="E47" s="3">
         <v>-1.7191933719403862E-2</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>-5.3440900926561952E-2</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3.1030881253553133E-3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>-5.0735389977579759E-3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5.984749272551193E-2</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2.8967477686491661E-2</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5.4628601609730598E-2</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1.527958615244529E-2</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1.8190175444773971E-2</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>-6.6964509641731618E-2</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6.2625091575213787E-2</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7.1665065127848759E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="3">
         <v>-2.044306948039798E-2</v>
       </c>
-      <c r="C48" s="3">
+      <c r="D48" s="3">
         <v>3.5743498369327886E-2</v>
       </c>
-      <c r="D48" s="3">
+      <c r="E48" s="3">
         <v>-2.5440025202893568E-2</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>-1.2195900766222456E-2</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>-9.8826260622897344E-4</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1.9688546301108723E-3</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4.1981675306002719E-2</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3.4463555876186103E-2</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6.2627605832798361E-2</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4.5671146018810838E-2</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2.7581045319729602E-2</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>-9.7156026454182642E-2</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>0.17344418198222189</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>0.11518683831603216</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="6">
         <v>-3.4348330042056174E-2</v>
       </c>
-      <c r="C49" s="6">
+      <c r="D49" s="6">
         <v>9.4962486926266632E-3</v>
       </c>
-      <c r="D49" s="6">
+      <c r="E49" s="6">
         <v>-1.7086283173997074E-2</v>
       </c>
-      <c r="E49" s="6">
+      <c r="F49" s="6">
         <v>-3.2169807154509344E-2</v>
       </c>
-      <c r="F49" s="6">
+      <c r="G49" s="6">
         <v>3.2161361997951055E-4</v>
       </c>
-      <c r="G49" s="6">
+      <c r="H49" s="6">
         <v>6.8964441384415931E-3</v>
       </c>
-      <c r="H49" s="6">
+      <c r="I49" s="6">
         <v>4.7769572817222272E-2</v>
       </c>
-      <c r="I49" s="6">
+      <c r="J49" s="6">
         <v>2.7247931884669452E-2</v>
       </c>
-      <c r="J49" s="6">
+      <c r="K49" s="6">
         <v>3.5291786563228511E-2</v>
       </c>
-      <c r="K49" s="6">
+      <c r="L49" s="6">
         <v>3.329181321746888E-2</v>
       </c>
-      <c r="L49" s="6">
+      <c r="M49" s="6">
         <v>2.9571601550042903E-2</v>
       </c>
-      <c r="M49" s="6">
+      <c r="N49" s="6">
         <v>-8.5188468172423426E-2</v>
       </c>
-      <c r="N49" s="6">
+      <c r="O49" s="6">
         <v>9.1178873187258702E-2</v>
       </c>
-      <c r="O49" s="6">
+      <c r="P49" s="6">
         <v>0.11260561191286755</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="3">
         <v>-1.6510024345620988E-2</v>
       </c>
-      <c r="C50" s="3">
+      <c r="D50" s="3">
         <v>1.4519078229945581E-2</v>
       </c>
-      <c r="D50" s="3">
+      <c r="E50" s="3">
         <v>-2.1751906413275512E-2</v>
       </c>
-      <c r="E50" s="3">
+      <c r="F50" s="3">
         <v>-3.8791885789289715E-2</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="3">
         <v>-1.5598497161062319E-4</v>
       </c>
-      <c r="G50" s="3">
+      <c r="H50" s="3">
         <v>-5.6237701608164992E-3</v>
       </c>
-      <c r="H50" s="3">
+      <c r="I50" s="3">
         <v>5.5304879411314678E-2</v>
       </c>
-      <c r="I50" s="3">
+      <c r="J50" s="3">
         <v>3.639136534492815E-2</v>
       </c>
-      <c r="J50" s="3">
+      <c r="K50" s="3">
         <v>2.5393135593766436E-2</v>
       </c>
-      <c r="K50" s="3">
+      <c r="L50" s="3">
         <v>4.2686940341142732E-2</v>
       </c>
-      <c r="L50" s="3">
+      <c r="M50" s="3">
         <v>2.2327401874197905E-2</v>
       </c>
-      <c r="M50" s="3">
+      <c r="N50" s="3">
         <v>-8.3325736722658195E-2</v>
       </c>
-      <c r="N50" s="3">
+      <c r="O50" s="3">
         <v>7.9537122544492744E-2</v>
       </c>
-      <c r="O50" s="3">
+      <c r="P50" s="3">
         <v>0.13231419472253436</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="3">
         <v>-4.1001295452832598E-2</v>
       </c>
-      <c r="C51" s="3">
+      <c r="D51" s="3">
         <v>3.698303533074121E-2</v>
       </c>
-      <c r="D51" s="3">
+      <c r="E51" s="3">
         <v>8.4837508216706325E-4</v>
       </c>
-      <c r="E51" s="3">
+      <c r="F51" s="3">
         <v>-1.6739383441377487E-2</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="3">
         <v>5.6565270850423843E-3</v>
       </c>
-      <c r="G51" s="3">
+      <c r="H51" s="3">
         <v>2.7584764025546882E-2</v>
       </c>
-      <c r="H51" s="3">
+      <c r="I51" s="3">
         <v>5.3977350620776132E-2</v>
       </c>
-      <c r="I51" s="3">
+      <c r="J51" s="3">
         <v>-3.0664890221534513E-3</v>
       </c>
-      <c r="J51" s="3">
+      <c r="K51" s="3">
         <v>-1.8711653855680854E-3</v>
       </c>
-      <c r="K51" s="3">
+      <c r="L51" s="3">
         <v>4.1571813538189284E-2</v>
       </c>
-      <c r="L51" s="3">
+      <c r="M51" s="3">
         <v>6.9373328287625213E-3</v>
       </c>
-      <c r="M51" s="3">
+      <c r="N51" s="3">
         <v>-0.1122014461177705</v>
       </c>
-      <c r="N51" s="3">
+      <c r="O51" s="3">
         <v>9.9681676591595547E-2</v>
       </c>
-      <c r="O51" s="3">
+      <c r="P51" s="3">
         <v>0.1214209052482369</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="3">
         <v>-5.0499407428495569E-2</v>
       </c>
-      <c r="C52" s="3">
+      <c r="D52" s="3">
         <v>3.0817460369597871E-2</v>
       </c>
-      <c r="D52" s="3">
+      <c r="E52" s="3">
         <v>8.8881335769215308E-3</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>-1.7503853248098666E-2</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>-1.9352967873255689E-2</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>-5.0450958712788818E-3</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2.9342888395749167E-2</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3.6968060004546777E-2</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3.1718951179769306E-2</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4.1018570058258819E-2</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5.2137939369107933E-2</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>-0.10065039258744912</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>0.13118436529653055</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>0.11830728724190842</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="3">
         <v>-4.919529131453837E-2</v>
       </c>
-      <c r="C53" s="3">
+      <c r="D53" s="3">
         <v>-1.3364374041939575E-2</v>
       </c>
-      <c r="D53" s="3">
+      <c r="E53" s="3">
         <v>-2.6043738675385342E-2</v>
       </c>
-      <c r="E53" s="3">
+      <c r="F53" s="3">
         <v>-3.4208716586836219E-2</v>
       </c>
-      <c r="F53" s="3">
+      <c r="G53" s="3">
         <v>5.6313515436152706E-3</v>
       </c>
-      <c r="G53" s="3">
+      <c r="H53" s="3">
         <v>1.9327220457743044E-2</v>
       </c>
-      <c r="H53" s="3">
+      <c r="I53" s="3">
         <v>4.1671102513789027E-2</v>
       </c>
-      <c r="I53" s="3">
+      <c r="J53" s="3">
         <v>2.4251489435531459E-2</v>
       </c>
-      <c r="J53" s="3">
+      <c r="K53" s="3">
         <v>6.3871421640834258E-2</v>
       </c>
-      <c r="K53" s="3">
+      <c r="L53" s="3">
         <v>1.5909649241863777E-2</v>
       </c>
-      <c r="L53" s="3">
+      <c r="M53" s="3">
         <v>4.009945902419787E-2</v>
       </c>
-      <c r="M53" s="3">
+      <c r="N53" s="3">
         <v>-7.2763481026883681E-2</v>
       </c>
-      <c r="N53" s="3">
+      <c r="O53" s="3">
         <v>9.0234329110987721E-2</v>
       </c>
-      <c r="O53" s="3">
+      <c r="P53" s="3">
         <v>8.2943700768019157E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="6">
         <v>-1.2758094472267278E-2</v>
       </c>
-      <c r="C54" s="6">
+      <c r="D54" s="6">
         <v>-5.0193148282507982E-3</v>
       </c>
-      <c r="D54" s="6">
+      <c r="E54" s="6">
         <v>6.7268950313235099E-3</v>
       </c>
-      <c r="E54" s="6">
+      <c r="F54" s="6">
         <v>-1.6351032505535268E-2</v>
       </c>
-      <c r="F54" s="6">
+      <c r="G54" s="6">
         <v>-1.5355225439113829E-2</v>
       </c>
-      <c r="G54" s="6">
+      <c r="H54" s="6">
         <v>1.3828072078359233E-2</v>
       </c>
-      <c r="H54" s="6">
+      <c r="I54" s="6">
         <v>5.2104472696539839E-2</v>
       </c>
-      <c r="I54" s="6">
+      <c r="J54" s="6">
         <v>3.9943340379217096E-2</v>
       </c>
-      <c r="J54" s="6">
+      <c r="K54" s="6">
         <v>4.6179402784926049E-2</v>
       </c>
-      <c r="K54" s="6">
+      <c r="L54" s="6">
         <v>4.1728039873005107E-2</v>
       </c>
-      <c r="L54" s="6">
+      <c r="M54" s="6">
         <v>4.3440288789640569E-2</v>
       </c>
-      <c r="M54" s="6">
+      <c r="N54" s="6">
         <v>-9.359747015448916E-2</v>
       </c>
-      <c r="N54" s="6">
+      <c r="O54" s="6">
         <v>8.4934012971532358E-2</v>
       </c>
-      <c r="O54" s="6">
+      <c r="P54" s="6">
         <v>0.11486208153451027</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="6">
         <v>-4.9585262229446259E-2</v>
       </c>
-      <c r="C55" s="6">
+      <c r="D55" s="6">
         <v>1.054064367657892E-2</v>
       </c>
-      <c r="D55" s="6">
+      <c r="E55" s="6">
         <v>-2.3751969179989341E-2</v>
       </c>
-      <c r="E55" s="6">
+      <c r="F55" s="6">
         <v>-2.6986185443738098E-2</v>
       </c>
-      <c r="F55" s="6">
+      <c r="G55" s="6">
         <v>3.5632273982622031E-3</v>
       </c>
-      <c r="G55" s="6">
+      <c r="H55" s="6">
         <v>7.1072522967527973E-3</v>
       </c>
-      <c r="H55" s="6">
+      <c r="I55" s="6">
         <v>7.0839651913724433E-2</v>
       </c>
-      <c r="I55" s="6">
+      <c r="J55" s="6">
         <v>2.8812373584605311E-2</v>
       </c>
-      <c r="J55" s="6">
+      <c r="K55" s="6">
         <v>3.9433055358004676E-2</v>
       </c>
-      <c r="K55" s="6">
+      <c r="L55" s="6">
         <v>1.6762207826306996E-2</v>
       </c>
-      <c r="L55" s="6">
+      <c r="M55" s="6">
         <v>4.05263130513005E-2</v>
       </c>
-      <c r="M55" s="6">
+      <c r="N55" s="6">
         <v>-7.7584681587039017E-2</v>
       </c>
-      <c r="N55" s="6">
+      <c r="O55" s="6">
         <v>0.10391607101452927</v>
       </c>
-      <c r="O55" s="6">
+      <c r="P55" s="6">
         <v>0.11323820824488662</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="6">
         <v>-3.321048509301483E-2</v>
       </c>
-      <c r="C56" s="6">
+      <c r="D56" s="6">
         <v>4.8437173992310623E-3</v>
       </c>
-      <c r="D56" s="6">
+      <c r="E56" s="6">
         <v>-1.6976548050667839E-3</v>
       </c>
-      <c r="E56" s="6">
+      <c r="F56" s="6">
         <v>-3.7693228339689466E-2</v>
       </c>
-      <c r="F56" s="6">
+      <c r="G56" s="6">
         <v>-1.7817678246555557E-3</v>
       </c>
-      <c r="G56" s="6">
+      <c r="H56" s="6">
         <v>1.7023677441766916E-2</v>
       </c>
-      <c r="H56" s="6">
+      <c r="I56" s="6">
         <v>3.9246623984874329E-2</v>
       </c>
-      <c r="I56" s="6">
+      <c r="J56" s="6">
         <v>3.1466176426553361E-2</v>
       </c>
-      <c r="J56" s="6">
+      <c r="K56" s="6">
         <v>4.1639744976173176E-2</v>
       </c>
-      <c r="K56" s="6">
+      <c r="L56" s="6">
         <v>2.7270755763017851E-2</v>
       </c>
-      <c r="L56" s="6">
+      <c r="M56" s="6">
         <v>4.1227179587660423E-2</v>
       </c>
-      <c r="M56" s="6">
+      <c r="N56" s="6">
         <v>-9.0627323772056401E-2</v>
       </c>
-      <c r="N56" s="6">
+      <c r="O56" s="6">
         <v>8.6650735467956652E-2</v>
       </c>
-      <c r="O56" s="6">
+      <c r="P56" s="6">
         <v>0.11468070940050623</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="6">
         <v>-4.1889373722741707E-2</v>
       </c>
-      <c r="C57" s="6">
+      <c r="D57" s="6">
         <v>1.293844306241998E-2</v>
       </c>
-      <c r="D57" s="6">
+      <c r="E57" s="6">
         <v>-8.0301612695856672E-3</v>
       </c>
-      <c r="E57" s="6">
+      <c r="F57" s="6">
         <v>-2.4478623863585791E-2</v>
       </c>
-      <c r="F57" s="6">
+      <c r="G57" s="6">
         <v>-1.3574022141765063E-2</v>
       </c>
-      <c r="G57" s="6">
+      <c r="H57" s="6">
         <v>1.8542241877417043E-2</v>
       </c>
-      <c r="H57" s="6">
+      <c r="I57" s="6">
         <v>3.8897041425181911E-2</v>
       </c>
-      <c r="I57" s="6">
+      <c r="J57" s="6">
         <v>3.1374630050115204E-2</v>
       </c>
-      <c r="J57" s="6">
+      <c r="K57" s="6">
         <v>3.6807006744379756E-2</v>
       </c>
-      <c r="K57" s="6">
+      <c r="L57" s="6">
         <v>3.3481441732768458E-2</v>
       </c>
-      <c r="L57" s="6">
+      <c r="M57" s="6">
         <v>2.8990708225424378E-2</v>
       </c>
-      <c r="M57" s="6">
+      <c r="N57" s="6">
         <v>-9.9018714612913228E-2</v>
       </c>
-      <c r="N57" s="6">
+      <c r="O57" s="6">
         <v>8.7598671346210244E-2</v>
       </c>
-      <c r="O57" s="6">
+      <c r="P57" s="6">
         <v>0.10684517123122794</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="3">
         <v>-7.162037981780256E-2</v>
       </c>
-      <c r="C58" s="3">
+      <c r="D58" s="3">
         <v>-2.5582782959212569E-3</v>
       </c>
-      <c r="D58" s="3">
+      <c r="E58" s="3">
         <v>8.9151428825136048E-3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>-2.6883313551043342E-2</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1.0125743664381126E-2</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2.9786518597955336E-2</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2.6369286302571515E-2</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5.877306739348076E-2</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3.1385356939125142E-2</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3.1211573744081234E-2</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6.003305201986775E-3</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>-8.0742155828844475E-2</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1.6525776277032334E-2</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7.4429193083060285E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="3">
         <v>-2.7979246259677737E-2</v>
       </c>
-      <c r="C59" s="3">
+      <c r="D59" s="3">
         <v>1.5612159701776429E-2</v>
       </c>
-      <c r="D59" s="3">
+      <c r="E59" s="3">
         <v>-1.7479244444519093E-2</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>-2.5246220562975541E-2</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>-1.9211403358871504E-2</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2.2349552417232799E-2</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4.5268698281579534E-2</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2.4310768086892809E-2</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1.8640855207438634E-2</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3.7465606147786046E-2</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3.1960194693931188E-2</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>-0.10128735486009233</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8.7640742855502163E-2</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>0.14306293797624892</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="3">
         <v>-4.7253222475906576E-2</v>
       </c>
-      <c r="C60" s="3">
+      <c r="D60" s="3">
         <v>1.689163642645708E-2</v>
       </c>
-      <c r="D60" s="3">
+      <c r="E60" s="3">
         <v>-1.9512159618755298E-3</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>-2.2038736665431546E-2</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>-1.7198436345235435E-2</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6.6947137168804627E-3</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3.5794021937007869E-2</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2.7678727221157828E-2</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6.8333009905102049E-2</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2.8741401638917585E-2</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3.6904265159791283E-2</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>-0.10517246474597763</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>0.1257284585525138</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6.9800500263895948E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="6">
         <v>-4.2713312475634924E-2</v>
       </c>
-      <c r="C61" s="6">
+      <c r="D61" s="6">
         <v>1.2219483300603962E-2</v>
       </c>
-      <c r="D61" s="6">
+      <c r="E61" s="6">
         <v>-7.8891914543353092E-3</v>
       </c>
-      <c r="E61" s="6">
+      <c r="F61" s="6">
         <v>-3.4778237542337553E-2</v>
       </c>
-      <c r="F61" s="6">
+      <c r="G61" s="6">
         <v>-1.1462052967481595E-2</v>
       </c>
-      <c r="G61" s="6">
+      <c r="H61" s="6">
         <v>2.0749512408552606E-2</v>
       </c>
-      <c r="H61" s="6">
+      <c r="I61" s="6">
         <v>3.8071980075588874E-2</v>
       </c>
-      <c r="I61" s="6">
+      <c r="J61" s="6">
         <v>5.1075150020571947E-3</v>
       </c>
-      <c r="J61" s="6">
+      <c r="K61" s="6">
         <v>3.4383176613995259E-2</v>
       </c>
-      <c r="K61" s="6">
+      <c r="L61" s="6">
         <v>3.5698690100119723E-2</v>
       </c>
-      <c r="L61" s="6">
+      <c r="M61" s="6">
         <v>2.7762902764116637E-2</v>
       </c>
-      <c r="M61" s="6">
+      <c r="N61" s="6">
         <v>-7.9086865833588038E-2</v>
       </c>
-      <c r="N61" s="6">
+      <c r="O61" s="6">
         <v>6.7038072338603705E-2</v>
       </c>
-      <c r="O61" s="6">
+      <c r="P61" s="6">
         <v>0.11801379389291133</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="6">
         <v>2.5808816642181043E-4</v>
       </c>
-      <c r="C62" s="6">
+      <c r="D62" s="6">
         <v>6.5253184511699924E-3</v>
       </c>
-      <c r="D62" s="6">
+      <c r="E62" s="6">
         <v>-1.9189348740142886E-3</v>
       </c>
-      <c r="E62" s="6">
+      <c r="F62" s="6">
         <v>-3.506123628696789E-2</v>
       </c>
-      <c r="F62" s="6">
+      <c r="G62" s="6">
         <v>1.1009737940160136E-2</v>
       </c>
-      <c r="G62" s="6">
+      <c r="H62" s="6">
         <v>-5.5851520879875993E-3</v>
       </c>
-      <c r="H62" s="6">
+      <c r="I62" s="6">
         <v>3.5830985915493052E-2</v>
       </c>
-      <c r="I62" s="6">
+      <c r="J62" s="6">
         <v>2.5986029647791398E-2</v>
       </c>
-      <c r="J62" s="6">
+      <c r="K62" s="6">
         <v>1.0517120485391551E-2</v>
       </c>
-      <c r="K62" s="6">
+      <c r="L62" s="6">
         <v>3.7385577834750716E-2</v>
       </c>
-      <c r="L62" s="6">
+      <c r="M62" s="6">
         <v>2.998855829560787E-2</v>
       </c>
-      <c r="M62" s="6">
+      <c r="N62" s="6">
         <v>-7.485697108216427E-2</v>
       </c>
-      <c r="N62" s="6">
+      <c r="O62" s="6">
         <v>6.400133357816995E-2</v>
       </c>
-      <c r="O62" s="6">
+      <c r="P62" s="6">
         <v>8.2579256134922341E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="6">
         <v>3.1659462628870205E-3</v>
       </c>
-      <c r="C63" s="6">
+      <c r="D63" s="6">
         <v>4.0605931550001806E-3</v>
       </c>
-      <c r="D63" s="6">
+      <c r="E63" s="6">
         <v>5.1842913558577397E-3</v>
       </c>
-      <c r="E63" s="6">
+      <c r="F63" s="6">
         <v>-3.5348409481632759E-2</v>
       </c>
-      <c r="F63" s="6">
+      <c r="G63" s="6">
         <v>1.0252635373779295E-2</v>
       </c>
-      <c r="G63" s="6">
+      <c r="H63" s="6">
         <v>8.2687755179742251E-3</v>
       </c>
-      <c r="H63" s="6">
+      <c r="I63" s="6">
         <v>4.222800248487113E-2</v>
       </c>
-      <c r="I63" s="6">
+      <c r="J63" s="6">
         <v>3.2073628610298943E-2</v>
       </c>
-      <c r="J63" s="6">
+      <c r="K63" s="6">
         <v>9.5391367556196816E-3</v>
       </c>
-      <c r="K63" s="6">
+      <c r="L63" s="6">
         <v>3.0201621426282355E-2</v>
       </c>
-      <c r="L63" s="6">
+      <c r="M63" s="6">
         <v>3.2561301048908531E-2</v>
       </c>
-      <c r="M63" s="6">
+      <c r="N63" s="6">
         <v>-6.9271156162325376E-2</v>
       </c>
-      <c r="N63" s="6">
+      <c r="O63" s="6">
         <v>5.6720552109424727E-2</v>
       </c>
-      <c r="O63" s="6">
+      <c r="P63" s="6">
         <v>8.0416269386355932E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D64" s="1">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="1">
         <v>0.33409110820696664</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
         <v>-0.22082481377831809</v>
       </c>
-      <c r="F64" s="1">
+      <c r="G64" s="1">
         <v>6.7166275688659738E-2</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
         <v>-3.6557775715573837E-2</v>
       </c>
-      <c r="H64" s="1">
+      <c r="I64" s="1">
         <v>5.4631962844902793E-2</v>
       </c>
-      <c r="I64" s="1">
+      <c r="J64" s="1">
         <v>-9.0202984446225765E-2</v>
       </c>
-      <c r="J64" s="1">
+      <c r="K64" s="1">
         <v>1.0831539349431374E-2</v>
       </c>
-      <c r="K64" s="1">
+      <c r="L64" s="1">
         <v>1.0520903582742491E-3</v>
       </c>
-      <c r="L64" s="1">
+      <c r="M64" s="1">
         <v>3.1213803693661335E-2</v>
       </c>
-      <c r="M64" s="1">
+      <c r="N64" s="1">
         <v>1.7534882134206731E-2</v>
       </c>
-      <c r="N64" s="1">
+      <c r="O64" s="1">
         <v>3.6347101619338185E-2</v>
       </c>
-      <c r="O64" s="1">
+      <c r="P64" s="1">
         <v>7.3196138930563093E-2</v>
       </c>
     </row>
